--- a/source-data/sweden/sweden_covid_source_latest.xlsx
+++ b/source-data/sweden/sweden_covid_source_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs-srv1.fohm.local\common\Data\covid-19\Do-filer och analys\filer till dashboard\Arkiv (äldre filer till dashboard)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9030" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 15 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 17 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -174,17 +174,22 @@
     <t>Information</t>
   </si>
   <si>
-    <t>Data uppdateras dagligen kl 11.30 och finns tillgägliga dagligen kl 14.00. Läs mer på https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/aktuellt-epidemiologiskt-lage/</t>
+    <t>Data uppdateras dagligen kl 11.30 och finns tillgängliga dagligen kl 14.00. Läs mer på https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/aktuellt-epidemiologiskt-lage/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,10 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C67" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -7692,7 +7699,7 @@
         <v>43965</v>
       </c>
       <c r="B102" s="2">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="C102" s="2">
         <v>2</v>
@@ -7749,10 +7756,10 @@
         <v>31</v>
       </c>
       <c r="U102" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V102" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="W102" s="2">
         <v>31</v>
@@ -7763,70 +7770,212 @@
         <v>43966</v>
       </c>
       <c r="B103" s="2">
-        <v>185</v>
+        <v>653</v>
       </c>
       <c r="C103" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D103" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
       </c>
       <c r="F103" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G103" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H103" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I103" s="2">
+        <v>36</v>
+      </c>
+      <c r="J103" s="2">
+        <v>8</v>
+      </c>
+      <c r="K103" s="2">
+        <v>23</v>
+      </c>
+      <c r="L103" s="2">
+        <v>2</v>
+      </c>
+      <c r="M103" s="2">
+        <v>42</v>
+      </c>
+      <c r="N103" s="2">
+        <v>147</v>
+      </c>
+      <c r="O103" s="2">
+        <v>19</v>
+      </c>
+      <c r="P103" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>8</v>
+      </c>
+      <c r="R103" s="2">
+        <v>14</v>
+      </c>
+      <c r="S103" s="2">
+        <v>25</v>
+      </c>
+      <c r="T103" s="2">
+        <v>14</v>
+      </c>
+      <c r="U103" s="2">
+        <v>154</v>
+      </c>
+      <c r="V103" s="2">
+        <v>26</v>
+      </c>
+      <c r="W103" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B104" s="2">
+        <v>357</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>24</v>
+      </c>
+      <c r="G104" s="2">
+        <v>8</v>
+      </c>
+      <c r="H104" s="2">
+        <v>7</v>
+      </c>
+      <c r="I104" s="2">
         <v>21</v>
       </c>
-      <c r="J103" s="2">
-        <v>1</v>
-      </c>
-      <c r="K103" s="2">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2">
-        <v>0</v>
-      </c>
-      <c r="M103" s="2">
+      <c r="J104" s="2">
+        <v>3</v>
+      </c>
+      <c r="K104" s="2">
+        <v>16</v>
+      </c>
+      <c r="L104" s="2">
+        <v>2</v>
+      </c>
+      <c r="M104" s="2">
+        <v>22</v>
+      </c>
+      <c r="N104" s="2">
+        <v>63</v>
+      </c>
+      <c r="O104" s="2">
+        <v>5</v>
+      </c>
+      <c r="P104" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q104" s="2">
         <v>7</v>
       </c>
-      <c r="N103" s="2">
-        <v>43</v>
-      </c>
-      <c r="O103" s="2">
-        <v>2</v>
-      </c>
-      <c r="P103" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="2">
-        <v>0</v>
-      </c>
-      <c r="R103" s="2">
-        <v>4</v>
-      </c>
-      <c r="S103" s="2">
-        <v>2</v>
-      </c>
-      <c r="T103" s="2">
-        <v>9</v>
-      </c>
-      <c r="U103" s="2">
-        <v>66</v>
-      </c>
-      <c r="V103" s="2">
-        <v>0</v>
-      </c>
-      <c r="W103" s="2">
-        <v>10</v>
+      <c r="R104" s="2">
+        <v>3</v>
+      </c>
+      <c r="S104" s="2">
+        <v>18</v>
+      </c>
+      <c r="T104" s="2">
+        <v>0</v>
+      </c>
+      <c r="U104" s="2">
+        <v>97</v>
+      </c>
+      <c r="V104" s="2">
+        <v>20</v>
+      </c>
+      <c r="W104" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B105" s="2">
+        <v>86</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <v>3</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>7</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2">
+        <v>1</v>
+      </c>
+      <c r="M105" s="2">
+        <v>2</v>
+      </c>
+      <c r="N105" s="2">
+        <v>12</v>
+      </c>
+      <c r="O105" s="2">
+        <v>0</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>0</v>
+      </c>
+      <c r="R105" s="2">
+        <v>3</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0</v>
+      </c>
+      <c r="T105" s="2">
+        <v>0</v>
+      </c>
+      <c r="U105" s="2">
+        <v>53</v>
+      </c>
+      <c r="V105" s="2">
+        <v>0</v>
+      </c>
+      <c r="W105" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7836,13 +7985,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B35" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -8121,7 +8273,7 @@
         <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8161,7 +8313,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8169,7 +8321,7 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8201,7 +8353,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8257,7 +8409,7 @@
         <v>43951</v>
       </c>
       <c r="B52" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8265,7 +8417,7 @@
         <v>43952</v>
       </c>
       <c r="B53" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8313,7 +8465,7 @@
         <v>43958</v>
       </c>
       <c r="B59" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8321,7 +8473,7 @@
         <v>43959</v>
       </c>
       <c r="B60" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8329,7 +8481,7 @@
         <v>43960</v>
       </c>
       <c r="B61" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8337,7 +8489,7 @@
         <v>43961</v>
       </c>
       <c r="B62" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8345,7 +8497,7 @@
         <v>43962</v>
       </c>
       <c r="B63" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8353,7 +8505,7 @@
         <v>43963</v>
       </c>
       <c r="B64" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8361,7 +8513,7 @@
         <v>43964</v>
       </c>
       <c r="B65" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8369,7 +8521,7 @@
         <v>43965</v>
       </c>
       <c r="B66" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8377,15 +8529,23 @@
         <v>43966</v>
       </c>
       <c r="B67" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="2">
-        <v>14</v>
+      <c r="B69" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -8395,13 +8555,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -8528,7 +8691,7 @@
         <v>43910</v>
       </c>
       <c r="B16" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8552,7 +8715,7 @@
         <v>43913</v>
       </c>
       <c r="B19" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8560,7 +8723,7 @@
         <v>43914</v>
       </c>
       <c r="B20" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8584,7 +8747,7 @@
         <v>43917</v>
       </c>
       <c r="B23" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8640,7 +8803,7 @@
         <v>43924</v>
       </c>
       <c r="B30" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8664,7 +8827,7 @@
         <v>43927</v>
       </c>
       <c r="B33" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8720,7 +8883,7 @@
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8736,7 +8899,7 @@
         <v>43936</v>
       </c>
       <c r="B42" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8776,7 +8939,7 @@
         <v>43941</v>
       </c>
       <c r="B47" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8784,7 +8947,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8840,7 +9003,7 @@
         <v>43949</v>
       </c>
       <c r="B55" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8856,7 +9019,7 @@
         <v>43951</v>
       </c>
       <c r="B57" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8864,7 +9027,7 @@
         <v>43952</v>
       </c>
       <c r="B58" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8880,7 +9043,7 @@
         <v>43954</v>
       </c>
       <c r="B60" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8912,7 +9075,7 @@
         <v>43958</v>
       </c>
       <c r="B64" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8944,7 +9107,7 @@
         <v>43962</v>
       </c>
       <c r="B68" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8952,7 +9115,7 @@
         <v>43963</v>
       </c>
       <c r="B69" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8960,7 +9123,7 @@
         <v>43964</v>
       </c>
       <c r="B70" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8968,7 +9131,7 @@
         <v>43965</v>
       </c>
       <c r="B71" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8976,7 +9139,15 @@
         <v>43966</v>
       </c>
       <c r="B72" s="2">
-        <v>3</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B73" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8989,7 +9160,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9016,10 +9187,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2">
-        <v>58.895027160644531</v>
+        <v>63.907371520996094</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -9033,10 +9204,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1025</v>
+        <v>1039</v>
       </c>
       <c r="C3" s="2">
-        <v>355.94479370117188</v>
+        <v>360.80648803710938</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
@@ -9050,10 +9221,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2">
-        <v>110.57869720458984</v>
+        <v>112.25412750244141</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -9067,13 +9238,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>917</v>
+        <v>974</v>
       </c>
       <c r="C5" s="2">
-        <v>319.08749389648438</v>
+        <v>338.92172241210938</v>
       </c>
       <c r="D5" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2">
         <v>86</v>
@@ -9084,13 +9255,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="C6" s="2">
-        <v>158.45533752441406</v>
+        <v>164.74563598632813</v>
       </c>
       <c r="D6" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>45</v>
@@ -9101,16 +9272,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="C7" s="2">
-        <v>395.229736328125</v>
+        <v>409.75460815429688</v>
       </c>
       <c r="D7" s="2">
         <v>13</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9118,10 +9289,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1111</v>
+        <v>1147</v>
       </c>
       <c r="C8" s="2">
-        <v>305.556396484375</v>
+        <v>315.45742797851563</v>
       </c>
       <c r="D8" s="2">
         <v>58</v>
@@ -9135,10 +9306,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C9" s="2">
-        <v>99.410865783691406</v>
+        <v>103.48508453369141</v>
       </c>
       <c r="D9" s="2">
         <v>23</v>
@@ -9152,16 +9323,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="C10" s="2">
-        <v>289.87091064453125</v>
+        <v>309.22872924804688</v>
       </c>
       <c r="D10" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9169,13 +9340,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C11" s="2">
-        <v>132.7506103515625</v>
+        <v>134.7498779296875</v>
       </c>
       <c r="D11" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
         <v>40</v>
@@ -9186,16 +9357,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1189</v>
+        <v>1248</v>
       </c>
       <c r="C12" s="2">
-        <v>86.295303344726563</v>
+        <v>90.577407836914063</v>
       </c>
       <c r="D12" s="2">
         <v>76</v>
       </c>
       <c r="E12" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9203,16 +9374,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>10311</v>
+        <v>10490</v>
       </c>
       <c r="C13" s="2">
-        <v>433.76730346679688</v>
+        <v>441.29754638671875</v>
       </c>
       <c r="D13" s="2">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="E13" s="2">
-        <v>1822</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9220,13 +9391,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1479</v>
+        <v>1501</v>
       </c>
       <c r="C14" s="2">
-        <v>497.07601928710938</v>
+        <v>504.47000122070313</v>
       </c>
       <c r="D14" s="2">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2">
         <v>200</v>
@@ -9237,16 +9408,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1430</v>
+        <v>1490</v>
       </c>
       <c r="C15" s="2">
-        <v>372.67437744140625</v>
+        <v>388.31106567382813</v>
       </c>
       <c r="D15" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9254,10 +9425,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C16" s="2">
-        <v>109.41384124755859</v>
+        <v>114.72518920898438</v>
       </c>
       <c r="D16" s="2">
         <v>25</v>
@@ -9271,16 +9442,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C17" s="2">
-        <v>147.5697021484375</v>
+        <v>153.457763671875</v>
       </c>
       <c r="D17" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9288,13 +9459,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="C18" s="2">
-        <v>165.07232666015625</v>
+        <v>181.78335571289063</v>
       </c>
       <c r="D18" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2">
         <v>61</v>
@@ -9305,13 +9476,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C19" s="2">
-        <v>361.07232666015625</v>
+        <v>362.88494873046875</v>
       </c>
       <c r="D19" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2">
         <v>123</v>
@@ -9322,16 +9493,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>4112</v>
+        <v>4352</v>
       </c>
       <c r="C20" s="2">
-        <v>238.255126953125</v>
+        <v>252.16107177734375</v>
       </c>
       <c r="D20" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E20" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9339,16 +9510,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1432</v>
+        <v>1501</v>
       </c>
       <c r="C21" s="2">
-        <v>469.80856323242188</v>
+        <v>492.44598388671875</v>
       </c>
       <c r="D21" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9356,13 +9527,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="C22" s="2">
-        <v>370.35842895507813</v>
+        <v>374.65493774414063</v>
       </c>
       <c r="D22" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2">
         <v>159</v>
@@ -9378,7 +9549,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9402,13 +9573,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>12262</v>
+        <v>12587</v>
       </c>
       <c r="C2" s="2">
-        <v>1337</v>
+        <v>1365</v>
       </c>
       <c r="D2" s="2">
-        <v>2028</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9416,13 +9587,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>16942</v>
+        <v>17553</v>
       </c>
       <c r="C3" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D3" s="2">
-        <v>1618</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9449,7 +9620,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9473,7 +9644,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -9487,7 +9658,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -9501,13 +9672,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>2512</v>
+        <v>2615</v>
       </c>
       <c r="C4" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9515,13 +9686,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>3294</v>
+        <v>3445</v>
       </c>
       <c r="C5" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9529,13 +9700,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>4107</v>
+        <v>4260</v>
       </c>
       <c r="C6" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D6" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9543,13 +9714,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>5198</v>
+        <v>5370</v>
       </c>
       <c r="C7" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D7" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9557,13 +9728,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>3608</v>
+        <v>3712</v>
       </c>
       <c r="C8" s="2">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="D8" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9571,13 +9742,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>3422</v>
+        <v>3508</v>
       </c>
       <c r="C9" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D9" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9585,13 +9756,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>4270</v>
+        <v>4355</v>
       </c>
       <c r="C10" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2">
-        <v>1495</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9599,13 +9770,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>2326</v>
+        <v>2384</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9631,7 +9802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -9641,7 +9814,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/source-data/sweden/sweden_covid_source_latest.xlsx
+++ b/source-data/sweden/sweden_covid_source_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs-srv1.fohm.local\common\Data\covid-19\Do-filer och analys\filer till dashboard\Arkiv (äldre filer till dashboard)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="9885" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 17 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 19 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -181,15 +181,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,12 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,16 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W105"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -5090,7 +5080,7 @@
         <v>13</v>
       </c>
       <c r="H65" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I65" s="2">
         <v>23</v>
@@ -5120,7 +5110,7 @@
         <v>7</v>
       </c>
       <c r="R65" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S65" s="2">
         <v>10</v>
@@ -6705,7 +6695,7 @@
         <v>43951</v>
       </c>
       <c r="B88" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -6747,7 +6737,7 @@
         <v>23</v>
       </c>
       <c r="P88" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q88" s="2">
         <v>9</v>
@@ -7770,7 +7760,7 @@
         <v>43966</v>
       </c>
       <c r="B103" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C103" s="2">
         <v>6</v>
@@ -7791,10 +7781,10 @@
         <v>15</v>
       </c>
       <c r="I103" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J103" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K103" s="2">
         <v>23</v>
@@ -7841,7 +7831,7 @@
         <v>43967</v>
       </c>
       <c r="B104" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C104" s="2">
         <v>2</v>
@@ -7871,13 +7861,13 @@
         <v>16</v>
       </c>
       <c r="L104" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M104" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N104" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O104" s="2">
         <v>5</v>
@@ -7912,49 +7902,49 @@
         <v>43968</v>
       </c>
       <c r="B105" s="2">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="C105" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
       </c>
       <c r="F105" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G105" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H105" s="2">
+        <v>8</v>
+      </c>
+      <c r="I105" s="2">
+        <v>24</v>
+      </c>
+      <c r="J105" s="2">
+        <v>2</v>
+      </c>
+      <c r="K105" s="2">
         <v>7</v>
       </c>
-      <c r="I105" s="2">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2">
-        <v>0</v>
-      </c>
-      <c r="K105" s="2">
-        <v>0</v>
-      </c>
       <c r="L105" s="2">
         <v>1</v>
       </c>
       <c r="M105" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N105" s="2">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="O105" s="2">
         <v>0</v>
       </c>
       <c r="P105" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q105" s="2">
         <v>0</v>
@@ -7963,19 +7953,161 @@
         <v>3</v>
       </c>
       <c r="S105" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T105" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U105" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="V105" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W105" s="2">
-        <v>2</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B106" s="2">
+        <v>390</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>15</v>
+      </c>
+      <c r="G106" s="2">
+        <v>19</v>
+      </c>
+      <c r="H106" s="2">
+        <v>14</v>
+      </c>
+      <c r="I106" s="2">
+        <v>5</v>
+      </c>
+      <c r="J106" s="2">
+        <v>7</v>
+      </c>
+      <c r="K106" s="2">
+        <v>8</v>
+      </c>
+      <c r="L106" s="2">
+        <v>3</v>
+      </c>
+      <c r="M106" s="2">
+        <v>23</v>
+      </c>
+      <c r="N106" s="2">
+        <v>111</v>
+      </c>
+      <c r="O106" s="2">
+        <v>6</v>
+      </c>
+      <c r="P106" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>8</v>
+      </c>
+      <c r="R106" s="2">
+        <v>6</v>
+      </c>
+      <c r="S106" s="2">
+        <v>7</v>
+      </c>
+      <c r="T106" s="2">
+        <v>39</v>
+      </c>
+      <c r="U106" s="2">
+        <v>37</v>
+      </c>
+      <c r="V106" s="2">
+        <v>11</v>
+      </c>
+      <c r="W106" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B107" s="2">
+        <v>96</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <v>8</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2">
+        <v>7</v>
+      </c>
+      <c r="I107" s="2">
+        <v>7</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>3</v>
+      </c>
+      <c r="L107" s="2">
+        <v>1</v>
+      </c>
+      <c r="M107" s="2">
+        <v>25</v>
+      </c>
+      <c r="N107" s="2">
+        <v>20</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>3</v>
+      </c>
+      <c r="R107" s="2">
+        <v>0</v>
+      </c>
+      <c r="S107" s="2">
+        <v>0</v>
+      </c>
+      <c r="T107" s="2">
+        <v>0</v>
+      </c>
+      <c r="U107" s="2">
+        <v>17</v>
+      </c>
+      <c r="V107" s="2">
+        <v>0</v>
+      </c>
+      <c r="W107" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7985,15 +8117,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B67" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8441,7 +8573,7 @@
         <v>43955</v>
       </c>
       <c r="B56" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8473,7 +8605,7 @@
         <v>43959</v>
       </c>
       <c r="B60" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8489,7 +8621,7 @@
         <v>43961</v>
       </c>
       <c r="B62" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8497,7 +8629,7 @@
         <v>43962</v>
       </c>
       <c r="B63" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8505,7 +8637,7 @@
         <v>43963</v>
       </c>
       <c r="B64" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8513,7 +8645,7 @@
         <v>43964</v>
       </c>
       <c r="B65" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8521,7 +8653,7 @@
         <v>43965</v>
       </c>
       <c r="B66" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8529,7 +8661,7 @@
         <v>43966</v>
       </c>
       <c r="B67" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8537,15 +8669,39 @@
         <v>43967</v>
       </c>
       <c r="B68" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B69" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B70" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="2">
-        <v>15</v>
+      <c r="B72" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8555,16 +8711,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -8691,7 +8844,7 @@
         <v>43910</v>
       </c>
       <c r="B16" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8715,7 +8868,7 @@
         <v>43913</v>
       </c>
       <c r="B19" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8723,7 +8876,7 @@
         <v>43914</v>
       </c>
       <c r="B20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8747,7 +8900,7 @@
         <v>43917</v>
       </c>
       <c r="B23" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8803,7 +8956,7 @@
         <v>43924</v>
       </c>
       <c r="B30" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8827,7 +8980,7 @@
         <v>43927</v>
       </c>
       <c r="B33" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8883,7 +9036,7 @@
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8899,7 +9052,7 @@
         <v>43936</v>
       </c>
       <c r="B42" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8939,7 +9092,7 @@
         <v>43941</v>
       </c>
       <c r="B47" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8947,7 +9100,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8995,7 +9148,7 @@
         <v>43948</v>
       </c>
       <c r="B54" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -9019,7 +9172,7 @@
         <v>43951</v>
       </c>
       <c r="B57" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -9027,7 +9180,7 @@
         <v>43952</v>
       </c>
       <c r="B58" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -9043,7 +9196,7 @@
         <v>43954</v>
       </c>
       <c r="B60" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -9091,7 +9244,7 @@
         <v>43960</v>
       </c>
       <c r="B66" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -9107,7 +9260,7 @@
         <v>43962</v>
       </c>
       <c r="B68" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -9115,7 +9268,7 @@
         <v>43963</v>
       </c>
       <c r="B69" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -9131,7 +9284,7 @@
         <v>43965</v>
       </c>
       <c r="B71" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -9139,7 +9292,7 @@
         <v>43966</v>
       </c>
       <c r="B72" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -9147,7 +9300,31 @@
         <v>43967</v>
       </c>
       <c r="B73" s="2">
-        <v>7</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B74" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B75" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9160,7 +9337,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9187,16 +9364,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
-        <v>63.907371520996094</v>
+        <v>64.533912658691406</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9204,13 +9381,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1039</v>
+        <v>1063</v>
       </c>
       <c r="C3" s="2">
-        <v>360.80648803710938</v>
+        <v>369.14080810546875</v>
       </c>
       <c r="D3" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
         <v>128</v>
@@ -9238,16 +9415,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>974</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="2">
-        <v>338.92172241210938</v>
+        <v>348.31686401367188</v>
       </c>
       <c r="D5" s="2">
         <v>42</v>
       </c>
       <c r="E5" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9255,16 +9432,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="C6" s="2">
-        <v>164.74563598632813</v>
+        <v>171.93453979492188</v>
       </c>
       <c r="D6" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9272,16 +9449,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="C7" s="2">
-        <v>409.75460815429688</v>
+        <v>427.33737182617188</v>
       </c>
       <c r="D7" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9289,16 +9466,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1147</v>
+        <v>1182</v>
       </c>
       <c r="C8" s="2">
-        <v>315.45742797851563</v>
+        <v>325.08340454101563</v>
       </c>
       <c r="D8" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9306,10 +9483,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C9" s="2">
-        <v>103.48508453369141</v>
+        <v>107.15187835693359</v>
       </c>
       <c r="D9" s="2">
         <v>23</v>
@@ -9323,16 +9500,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="C10" s="2">
-        <v>309.22872924804688</v>
+        <v>318.1630859375</v>
       </c>
       <c r="D10" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9340,13 +9517,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C11" s="2">
-        <v>134.7498779296875</v>
+        <v>136.74913024902344</v>
       </c>
       <c r="D11" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>40</v>
@@ -9357,16 +9534,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1248</v>
+        <v>1304</v>
       </c>
       <c r="C12" s="2">
-        <v>90.577407836914063</v>
+        <v>94.641777038574219</v>
       </c>
       <c r="D12" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9374,16 +9551,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>10490</v>
+        <v>10668</v>
       </c>
       <c r="C13" s="2">
-        <v>441.29754638671875</v>
+        <v>448.78570556640625</v>
       </c>
       <c r="D13" s="2">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E13" s="2">
-        <v>1837</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9391,16 +9568,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="C14" s="2">
-        <v>504.47000122070313</v>
+        <v>506.48651123046875</v>
       </c>
       <c r="D14" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E14" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9408,13 +9585,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1490</v>
+        <v>1528</v>
       </c>
       <c r="C15" s="2">
-        <v>388.31106567382813</v>
+        <v>398.21429443359375</v>
       </c>
       <c r="D15" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" s="2">
         <v>142</v>
@@ -9425,16 +9602,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C16" s="2">
-        <v>114.72518920898438</v>
+        <v>118.62017822265625</v>
       </c>
       <c r="D16" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9442,13 +9619,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C17" s="2">
-        <v>153.457763671875</v>
+        <v>155.29779052734375</v>
       </c>
       <c r="D17" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2">
         <v>19</v>
@@ -9459,16 +9636,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C18" s="2">
-        <v>181.78335571289063</v>
+        <v>185.85920715332031</v>
       </c>
       <c r="D18" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9476,13 +9653,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1001</v>
+        <v>1042</v>
       </c>
       <c r="C19" s="2">
-        <v>362.88494873046875</v>
+        <v>377.74838256835938</v>
       </c>
       <c r="D19" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2">
         <v>123</v>
@@ -9493,16 +9670,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>4352</v>
+        <v>4442</v>
       </c>
       <c r="C20" s="2">
-        <v>252.16107177734375</v>
+        <v>257.37579345703125</v>
       </c>
       <c r="D20" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E20" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9510,16 +9687,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1501</v>
+        <v>1515</v>
       </c>
       <c r="C21" s="2">
-        <v>492.44598388671875</v>
+        <v>497.03909301757813</v>
       </c>
       <c r="D21" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9527,13 +9704,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1744</v>
+        <v>1785</v>
       </c>
       <c r="C22" s="2">
-        <v>374.65493774414063</v>
+        <v>383.4627685546875</v>
       </c>
       <c r="D22" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2">
         <v>159</v>
@@ -9549,7 +9726,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9573,13 +9750,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>12587</v>
+        <v>12854</v>
       </c>
       <c r="C2" s="2">
-        <v>1365</v>
+        <v>1385</v>
       </c>
       <c r="D2" s="2">
-        <v>2041</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9587,13 +9764,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>17553</v>
+        <v>17942</v>
       </c>
       <c r="C3" s="2">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D3" s="2">
-        <v>1638</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9619,8 +9796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9644,7 +9821,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -9658,10 +9835,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -9672,10 +9849,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>2615</v>
+        <v>2686</v>
       </c>
       <c r="C4" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -9686,10 +9863,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>3445</v>
+        <v>3531</v>
       </c>
       <c r="C5" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2">
         <v>12</v>
@@ -9700,13 +9877,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>4260</v>
+        <v>4365</v>
       </c>
       <c r="C6" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9714,13 +9891,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>5370</v>
+        <v>5474</v>
       </c>
       <c r="C7" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D7" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9728,13 +9905,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>3712</v>
+        <v>3782</v>
       </c>
       <c r="C8" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D8" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9742,13 +9919,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>3508</v>
+        <v>3581</v>
       </c>
       <c r="C9" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D9" s="2">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9756,13 +9933,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>4355</v>
+        <v>4445</v>
       </c>
       <c r="C10" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2">
-        <v>1512</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9770,13 +9947,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>2384</v>
+        <v>2428</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>909</v>
+        <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9784,7 +9961,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -9802,9 +9979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -9814,7 +9989,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/source-data/sweden/sweden_covid_source_latest.xlsx
+++ b/source-data/sweden/sweden_covid_source_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="9885" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 19 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 26 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6340,7 +6340,7 @@
         <v>43946</v>
       </c>
       <c r="B83" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>45</v>
       </c>
       <c r="E83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" s="2">
         <v>23</v>
@@ -7973,7 +7973,7 @@
         <v>43969</v>
       </c>
       <c r="B106" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>19</v>
       </c>
       <c r="H106" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" s="2">
         <v>5</v>
@@ -8027,10 +8027,10 @@
         <v>7</v>
       </c>
       <c r="T106" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U106" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V106" s="2">
         <v>11</v>
@@ -8044,70 +8044,567 @@
         <v>43970</v>
       </c>
       <c r="B107" s="2">
-        <v>96</v>
+        <v>618</v>
       </c>
       <c r="C107" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D107" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
       </c>
       <c r="F107" s="2">
+        <v>34</v>
+      </c>
+      <c r="G107" s="2">
+        <v>14</v>
+      </c>
+      <c r="H107" s="2">
+        <v>9</v>
+      </c>
+      <c r="I107" s="2">
+        <v>41</v>
+      </c>
+      <c r="J107" s="2">
+        <v>2</v>
+      </c>
+      <c r="K107" s="2">
+        <v>27</v>
+      </c>
+      <c r="L107" s="2">
+        <v>2</v>
+      </c>
+      <c r="M107" s="2">
+        <v>65</v>
+      </c>
+      <c r="N107" s="2">
+        <v>129</v>
+      </c>
+      <c r="O107" s="2">
+        <v>18</v>
+      </c>
+      <c r="P107" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>15</v>
+      </c>
+      <c r="R107" s="2">
+        <v>15</v>
+      </c>
+      <c r="S107" s="2">
+        <v>38</v>
+      </c>
+      <c r="T107" s="2">
+        <v>22</v>
+      </c>
+      <c r="U107" s="2">
+        <v>105</v>
+      </c>
+      <c r="V107" s="2">
+        <v>22</v>
+      </c>
+      <c r="W107" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B108" s="2">
+        <v>766</v>
+      </c>
+      <c r="C108" s="2">
+        <v>23</v>
+      </c>
+      <c r="D108" s="2">
+        <v>31</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2">
+        <v>25</v>
+      </c>
+      <c r="G108" s="2">
+        <v>42</v>
+      </c>
+      <c r="H108" s="2">
+        <v>18</v>
+      </c>
+      <c r="I108" s="2">
+        <v>32</v>
+      </c>
+      <c r="J108" s="2">
+        <v>3</v>
+      </c>
+      <c r="K108" s="2">
+        <v>20</v>
+      </c>
+      <c r="L108" s="2">
+        <v>7</v>
+      </c>
+      <c r="M108" s="2">
+        <v>44</v>
+      </c>
+      <c r="N108" s="2">
+        <v>131</v>
+      </c>
+      <c r="O108" s="2">
+        <v>22</v>
+      </c>
+      <c r="P108" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>16</v>
+      </c>
+      <c r="R108" s="2">
+        <v>5</v>
+      </c>
+      <c r="S108" s="2">
+        <v>27</v>
+      </c>
+      <c r="T108" s="2">
+        <v>22</v>
+      </c>
+      <c r="U108" s="2">
+        <v>162</v>
+      </c>
+      <c r="V108" s="2">
+        <v>54</v>
+      </c>
+      <c r="W108" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B109" s="2">
+        <v>581</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2">
+        <v>17</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2">
+        <v>25</v>
+      </c>
+      <c r="G109" s="2">
+        <v>10</v>
+      </c>
+      <c r="H109" s="2">
+        <v>22</v>
+      </c>
+      <c r="I109" s="2">
+        <v>28</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2">
+        <v>18</v>
+      </c>
+      <c r="L109" s="2">
+        <v>6</v>
+      </c>
+      <c r="M109" s="2">
+        <v>23</v>
+      </c>
+      <c r="N109" s="2">
+        <v>91</v>
+      </c>
+      <c r="O109" s="2">
+        <v>6</v>
+      </c>
+      <c r="P109" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>20</v>
+      </c>
+      <c r="R109" s="2">
+        <v>9</v>
+      </c>
+      <c r="S109" s="2">
+        <v>16</v>
+      </c>
+      <c r="T109" s="2">
+        <v>24</v>
+      </c>
+      <c r="U109" s="2">
+        <v>168</v>
+      </c>
+      <c r="V109" s="2">
+        <v>38</v>
+      </c>
+      <c r="W109" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B110" s="2">
+        <v>517</v>
+      </c>
+      <c r="C110" s="2">
+        <v>10</v>
+      </c>
+      <c r="D110" s="2">
+        <v>5</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>23</v>
+      </c>
+      <c r="G110" s="2">
         <v>8</v>
       </c>
-      <c r="G107" s="2">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2">
+      <c r="H110" s="2">
+        <v>8</v>
+      </c>
+      <c r="I110" s="2">
+        <v>12</v>
+      </c>
+      <c r="J110" s="2">
+        <v>11</v>
+      </c>
+      <c r="K110" s="2">
+        <v>13</v>
+      </c>
+      <c r="L110" s="2">
+        <v>3</v>
+      </c>
+      <c r="M110" s="2">
+        <v>45</v>
+      </c>
+      <c r="N110" s="2">
+        <v>131</v>
+      </c>
+      <c r="O110" s="2">
+        <v>10</v>
+      </c>
+      <c r="P110" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>2</v>
+      </c>
+      <c r="R110" s="2">
         <v>7</v>
       </c>
-      <c r="I107" s="2">
+      <c r="S110" s="2">
+        <v>21</v>
+      </c>
+      <c r="T110" s="2">
+        <v>11</v>
+      </c>
+      <c r="U110" s="2">
+        <v>147</v>
+      </c>
+      <c r="V110" s="2">
+        <v>10</v>
+      </c>
+      <c r="W110" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B111" s="2">
+        <v>403</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2">
+        <v>13</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>22</v>
+      </c>
+      <c r="G111" s="2">
+        <v>6</v>
+      </c>
+      <c r="H111" s="2">
+        <v>23</v>
+      </c>
+      <c r="I111" s="2">
+        <v>27</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2">
+        <v>18</v>
+      </c>
+      <c r="L111" s="2">
+        <v>1</v>
+      </c>
+      <c r="M111" s="2">
+        <v>27</v>
+      </c>
+      <c r="N111" s="2">
+        <v>78</v>
+      </c>
+      <c r="O111" s="2">
+        <v>2</v>
+      </c>
+      <c r="P111" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>19</v>
+      </c>
+      <c r="R111" s="2">
+        <v>6</v>
+      </c>
+      <c r="S111" s="2">
+        <v>24</v>
+      </c>
+      <c r="T111" s="2">
+        <v>0</v>
+      </c>
+      <c r="U111" s="2">
+        <v>84</v>
+      </c>
+      <c r="V111" s="2">
+        <v>8</v>
+      </c>
+      <c r="W111" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B112" s="2">
+        <v>211</v>
+      </c>
+      <c r="C112" s="2">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2">
         <v>7</v>
       </c>
-      <c r="J107" s="2">
-        <v>1</v>
-      </c>
-      <c r="K107" s="2">
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <v>8</v>
+      </c>
+      <c r="G112" s="2">
+        <v>2</v>
+      </c>
+      <c r="H112" s="2">
+        <v>2</v>
+      </c>
+      <c r="I112" s="2">
+        <v>17</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2">
+        <v>11</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>9</v>
+      </c>
+      <c r="N112" s="2">
+        <v>60</v>
+      </c>
+      <c r="O112" s="2">
+        <v>1</v>
+      </c>
+      <c r="P112" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q112" s="2">
         <v>3</v>
       </c>
-      <c r="L107" s="2">
-        <v>1</v>
-      </c>
-      <c r="M107" s="2">
+      <c r="R112" s="2">
+        <v>3</v>
+      </c>
+      <c r="S112" s="2">
+        <v>10</v>
+      </c>
+      <c r="T112" s="2">
+        <v>0</v>
+      </c>
+      <c r="U112" s="2">
+        <v>27</v>
+      </c>
+      <c r="V112" s="2">
+        <v>29</v>
+      </c>
+      <c r="W112" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B113" s="2">
+        <v>452</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>18</v>
+      </c>
+      <c r="G113" s="2">
+        <v>8</v>
+      </c>
+      <c r="H113" s="2">
+        <v>2</v>
+      </c>
+      <c r="I113" s="2">
+        <v>24</v>
+      </c>
+      <c r="J113" s="2">
+        <v>16</v>
+      </c>
+      <c r="K113" s="2">
+        <v>8</v>
+      </c>
+      <c r="L113" s="2">
+        <v>9</v>
+      </c>
+      <c r="M113" s="2">
+        <v>29</v>
+      </c>
+      <c r="N113" s="2">
+        <v>128</v>
+      </c>
+      <c r="O113" s="2">
+        <v>14</v>
+      </c>
+      <c r="P113" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2</v>
+      </c>
+      <c r="R113" s="2">
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <v>3</v>
+      </c>
+      <c r="T113" s="2">
+        <v>28</v>
+      </c>
+      <c r="U113" s="2">
+        <v>107</v>
+      </c>
+      <c r="V113" s="2">
+        <v>11</v>
+      </c>
+      <c r="W113" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="A114" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B114" s="2">
+        <v>189</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>6</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>14</v>
+      </c>
+      <c r="I114" s="2">
+        <v>3</v>
+      </c>
+      <c r="J114" s="2">
+        <v>5</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2">
+        <v>4</v>
+      </c>
+      <c r="M114" s="2">
+        <v>24</v>
+      </c>
+      <c r="N114" s="2">
+        <v>23</v>
+      </c>
+      <c r="O114" s="2">
+        <v>11</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>10</v>
+      </c>
+      <c r="R114" s="2">
+        <v>0</v>
+      </c>
+      <c r="S114" s="2">
+        <v>8</v>
+      </c>
+      <c r="T114" s="2">
+        <v>17</v>
+      </c>
+      <c r="U114" s="2">
+        <v>39</v>
+      </c>
+      <c r="V114" s="2">
+        <v>0</v>
+      </c>
+      <c r="W114" s="2">
         <v>25</v>
-      </c>
-      <c r="N107" s="2">
-        <v>20</v>
-      </c>
-      <c r="O107" s="2">
-        <v>0</v>
-      </c>
-      <c r="P107" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q107" s="2">
-        <v>3</v>
-      </c>
-      <c r="R107" s="2">
-        <v>0</v>
-      </c>
-      <c r="S107" s="2">
-        <v>0</v>
-      </c>
-      <c r="T107" s="2">
-        <v>0</v>
-      </c>
-      <c r="U107" s="2">
-        <v>17</v>
-      </c>
-      <c r="V107" s="2">
-        <v>0</v>
-      </c>
-      <c r="W107" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8117,16 +8614,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B67" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B51" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -8501,7 +8995,7 @@
         <v>43946</v>
       </c>
       <c r="B47" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8525,7 +9019,7 @@
         <v>43949</v>
       </c>
       <c r="B50" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8541,7 +9035,7 @@
         <v>43951</v>
       </c>
       <c r="B52" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8549,7 +9043,7 @@
         <v>43952</v>
       </c>
       <c r="B53" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8557,7 +9051,7 @@
         <v>43953</v>
       </c>
       <c r="B54" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8565,7 +9059,7 @@
         <v>43954</v>
       </c>
       <c r="B55" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8581,7 +9075,7 @@
         <v>43956</v>
       </c>
       <c r="B57" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8589,7 +9083,7 @@
         <v>43957</v>
       </c>
       <c r="B58" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8597,7 +9091,7 @@
         <v>43958</v>
       </c>
       <c r="B59" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8605,7 +9099,7 @@
         <v>43959</v>
       </c>
       <c r="B60" s="2">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8613,7 +9107,7 @@
         <v>43960</v>
       </c>
       <c r="B61" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8621,7 +9115,7 @@
         <v>43961</v>
       </c>
       <c r="B62" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8629,7 +9123,7 @@
         <v>43962</v>
       </c>
       <c r="B63" s="2">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8637,7 +9131,7 @@
         <v>43963</v>
       </c>
       <c r="B64" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8645,7 +9139,7 @@
         <v>43964</v>
       </c>
       <c r="B65" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8653,7 +9147,7 @@
         <v>43965</v>
       </c>
       <c r="B66" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8661,7 +9155,7 @@
         <v>43966</v>
       </c>
       <c r="B67" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8669,7 +9163,7 @@
         <v>43967</v>
       </c>
       <c r="B68" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8677,7 +9171,7 @@
         <v>43968</v>
       </c>
       <c r="B69" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8685,7 +9179,7 @@
         <v>43969</v>
       </c>
       <c r="B70" s="2">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8693,15 +9187,71 @@
         <v>43970</v>
       </c>
       <c r="B71" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B72" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B73" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B74" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B75" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B76" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B77" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="2">
-        <v>23</v>
+      <c r="B79" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +9261,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -8988,7 +9538,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8996,7 +9546,7 @@
         <v>43929</v>
       </c>
       <c r="B35" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -9004,7 +9554,7 @@
         <v>43930</v>
       </c>
       <c r="B36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9012,7 +9562,7 @@
         <v>43931</v>
       </c>
       <c r="B37" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -9036,7 +9586,7 @@
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -9044,7 +9594,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9052,7 +9602,7 @@
         <v>43936</v>
       </c>
       <c r="B42" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -9060,7 +9610,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9100,7 +9650,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -9108,7 +9658,7 @@
         <v>43943</v>
       </c>
       <c r="B49" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -9116,7 +9666,7 @@
         <v>43944</v>
       </c>
       <c r="B50" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -9124,7 +9674,7 @@
         <v>43945</v>
       </c>
       <c r="B51" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -9212,7 +9762,7 @@
         <v>43956</v>
       </c>
       <c r="B62" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -9276,7 +9826,7 @@
         <v>43964</v>
       </c>
       <c r="B70" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -9292,7 +9842,7 @@
         <v>43966</v>
       </c>
       <c r="B72" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -9300,7 +9850,7 @@
         <v>43967</v>
       </c>
       <c r="B73" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -9316,7 +9866,7 @@
         <v>43969</v>
       </c>
       <c r="B75" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -9324,6 +9874,62 @@
         <v>43970</v>
       </c>
       <c r="B76" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B77" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B78" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B79" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B80" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B81" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B82" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B83" s="2">
         <v>1</v>
       </c>
     </row>
@@ -9337,7 +9943,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9364,10 +9970,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2">
-        <v>64.533912658691406</v>
+        <v>93.981430053710938</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -9381,16 +9987,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1063</v>
+        <v>1140</v>
       </c>
       <c r="C3" s="2">
-        <v>369.14080810546875</v>
+        <v>395.88006591796875</v>
       </c>
       <c r="D3" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9398,16 +10004,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2">
-        <v>112.25412750244141</v>
+        <v>117.28043365478516</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9415,16 +10021,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1001</v>
+        <v>1154</v>
       </c>
       <c r="C5" s="2">
-        <v>348.31686401367188</v>
+        <v>401.55612182617188</v>
       </c>
       <c r="D5" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9432,16 +10038,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>574</v>
+        <v>663</v>
       </c>
       <c r="C6" s="2">
-        <v>171.93453979492188</v>
+        <v>198.59336853027344</v>
       </c>
       <c r="D6" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9449,16 +10055,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>559</v>
+        <v>651</v>
       </c>
       <c r="C7" s="2">
-        <v>427.33737182617188</v>
+        <v>497.66836547851563</v>
       </c>
       <c r="D7" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9466,16 +10072,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1182</v>
+        <v>1359</v>
       </c>
       <c r="C8" s="2">
-        <v>325.08340454101563</v>
+        <v>373.76339721679688</v>
       </c>
       <c r="D8" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9483,16 +10089,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="C9" s="2">
-        <v>107.15187835693359</v>
+        <v>122.22647857666016</v>
       </c>
       <c r="D9" s="2">
         <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9500,16 +10106,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>641</v>
+        <v>753</v>
       </c>
       <c r="C10" s="2">
-        <v>318.1630859375</v>
+        <v>373.7547607421875</v>
       </c>
       <c r="D10" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9517,13 +10123,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="C11" s="2">
-        <v>136.74913024902344</v>
+        <v>149.14451599121094</v>
       </c>
       <c r="D11" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2">
         <v>40</v>
@@ -9534,16 +10140,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1304</v>
+        <v>1545</v>
       </c>
       <c r="C12" s="2">
-        <v>94.641777038574219</v>
+        <v>112.13308715820313</v>
       </c>
       <c r="D12" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9551,16 +10157,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>10668</v>
+        <v>11419</v>
       </c>
       <c r="C13" s="2">
-        <v>448.78570556640625</v>
+        <v>480.37908935546875</v>
       </c>
       <c r="D13" s="2">
-        <v>728</v>
+        <v>764</v>
       </c>
       <c r="E13" s="2">
-        <v>1864</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9568,16 +10174,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1507</v>
+        <v>1591</v>
       </c>
       <c r="C14" s="2">
-        <v>506.48651123046875</v>
+        <v>534.718017578125</v>
       </c>
       <c r="D14" s="2">
         <v>118</v>
       </c>
       <c r="E14" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9585,16 +10191,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1528</v>
+        <v>1722</v>
       </c>
       <c r="C15" s="2">
-        <v>398.21429443359375</v>
+        <v>448.77291870117188</v>
       </c>
       <c r="D15" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9602,16 +10208,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="C16" s="2">
-        <v>118.62017822265625</v>
+        <v>148.36375427246094</v>
       </c>
       <c r="D16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9619,16 +10225,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="C17" s="2">
-        <v>155.29779052734375</v>
+        <v>171.85798645019531</v>
       </c>
       <c r="D17" s="2">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2">
         <v>24</v>
-      </c>
-      <c r="E17" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9636,16 +10242,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>456</v>
+        <v>603</v>
       </c>
       <c r="C18" s="2">
-        <v>185.85920715332031</v>
+        <v>245.77435302734375</v>
       </c>
       <c r="D18" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9653,16 +10259,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1042</v>
+        <v>1163</v>
       </c>
       <c r="C19" s="2">
-        <v>377.74838256835938</v>
+        <v>421.61358642578125</v>
       </c>
       <c r="D19" s="2">
         <v>42</v>
       </c>
       <c r="E19" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9670,16 +10276,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>4442</v>
+        <v>5267</v>
       </c>
       <c r="C20" s="2">
-        <v>257.37579345703125</v>
+        <v>305.17745971679688</v>
       </c>
       <c r="D20" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E20" s="2">
-        <v>392</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9687,16 +10293,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1515</v>
+        <v>1687</v>
       </c>
       <c r="C21" s="2">
-        <v>497.03909301757813</v>
+        <v>553.4686279296875</v>
       </c>
       <c r="D21" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9704,16 +10310,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1785</v>
+        <v>1944</v>
       </c>
       <c r="C22" s="2">
-        <v>383.4627685546875</v>
+        <v>417.61996459960938</v>
       </c>
       <c r="D22" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -9725,9 +10331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -9750,13 +10354,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>12854</v>
+        <v>14140</v>
       </c>
       <c r="C2" s="2">
-        <v>1385</v>
+        <v>1474</v>
       </c>
       <c r="D2" s="2">
-        <v>2072</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9764,13 +10368,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>17942</v>
+        <v>20297</v>
       </c>
       <c r="C3" s="2">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="D3" s="2">
-        <v>1671</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9796,9 +10400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -9821,10 +10423,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -9835,10 +10437,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -9849,10 +10451,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>2686</v>
+        <v>3104</v>
       </c>
       <c r="C4" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -9863,10 +10465,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>3531</v>
+        <v>4051</v>
       </c>
       <c r="C5" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2">
         <v>12</v>
@@ -9877,13 +10479,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>4365</v>
+        <v>4962</v>
       </c>
       <c r="C6" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9891,13 +10493,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>5474</v>
+        <v>6190</v>
       </c>
       <c r="C7" s="2">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="D7" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9905,13 +10507,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>3782</v>
+        <v>4186</v>
       </c>
       <c r="C8" s="2">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="D8" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9919,13 +10521,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>3581</v>
+        <v>3888</v>
       </c>
       <c r="C9" s="2">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="D9" s="2">
-        <v>838</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9933,13 +10535,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>4445</v>
+        <v>4830</v>
       </c>
       <c r="C10" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2">
-        <v>1529</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9947,13 +10549,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>2428</v>
+        <v>2652</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>928</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9979,7 +10581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
